--- a/dog/dog_result.xlsx
+++ b/dog/dog_result.xlsx
@@ -2344,12 +2344,6 @@
     <t>프랑스 불독</t>
   </si>
   <si>
-    <t>푸들 (표준)</t>
-  </si>
-  <si>
-    <t>애마</t>
-  </si>
-  <si>
     <t>요크셔 테리어</t>
   </si>
   <si>
@@ -2371,27 +2365,18 @@
     <t>보스톤 테리어</t>
   </si>
   <si>
-    <t>포메 라니아 인</t>
-  </si>
-  <si>
     <t>브리타니</t>
   </si>
   <si>
     <t>마스티프</t>
   </si>
   <si>
-    <t>미국 코커 스패니얼</t>
-  </si>
-  <si>
     <t>치와와</t>
   </si>
   <si>
     <t>몰티즈</t>
   </si>
   <si>
-    <t>뉴 펀들 랜드</t>
-  </si>
-  <si>
     <t>미니어처 아메리칸 셰퍼드</t>
   </si>
   <si>
@@ -2410,9 +2395,6 @@
     <t>웨스트 하이랜드 화이트 테리어</t>
   </si>
   <si>
-    <t>체사 피크 만 리트리버</t>
-  </si>
-  <si>
     <t>시바 이누</t>
   </si>
   <si>
@@ -2467,15 +2449,6 @@
     <t>자이언트 슈나우저</t>
   </si>
   <si>
-    <t>아메리칸 스 태퍼 드셔 테리어</t>
-  </si>
-  <si>
-    <t>부르 비 데 플랑드르</t>
-  </si>
-  <si>
-    <t>바센 지</t>
-  </si>
-  <si>
     <t>잭 러셀 테리어</t>
   </si>
   <si>
@@ -2485,9 +2458,6 @@
     <t>페키니즈</t>
   </si>
   <si>
-    <t>노르웨이 엘크 하운드</t>
-  </si>
-  <si>
     <t>브뤼셀 그리폰</t>
   </si>
   <si>
@@ -2503,9 +2473,6 @@
     <t>와이어 폭스 테리어</t>
   </si>
   <si>
-    <t>노 위치 테리어</t>
-  </si>
-  <si>
     <t>고든 세터</t>
   </si>
   <si>
@@ -2518,15 +2485,9 @@
     <t>아프간 하운드</t>
   </si>
   <si>
-    <t>라 고토 로마 뇰로</t>
-  </si>
-  <si>
     <t>아이리쉬 테리어</t>
   </si>
   <si>
-    <t>티벳 스패니얼</t>
-  </si>
-  <si>
     <t>살 루키</t>
   </si>
   <si>
@@ -2539,27 +2500,15 @@
     <t>티베트 마스티프</t>
   </si>
   <si>
-    <t>호주 테리어</t>
-  </si>
-  <si>
-    <t>베드 링턴 테리어</t>
-  </si>
-  <si>
     <t>보어 콘</t>
   </si>
   <si>
     <t>버거 피카르</t>
   </si>
   <si>
-    <t>레드 본 Coonhound</t>
-  </si>
-  <si>
     <t>클럼버 스파니엘</t>
   </si>
   <si>
-    <t>레이크 랜드 테리어</t>
-  </si>
-  <si>
     <t>독일 핀셔</t>
   </si>
   <si>
@@ -2575,51 +2524,24 @@
     <t>스코틀랜드 디어 하운드</t>
   </si>
   <si>
-    <t>실 리엄 테리어</t>
-  </si>
-  <si>
-    <t>아메리칸 워터 발리 니스</t>
-  </si>
-  <si>
     <t>플롯 하운드</t>
   </si>
   <si>
     <t>풀리</t>
   </si>
   <si>
-    <t>스웨덴 발룬 트</t>
-  </si>
-  <si>
-    <t>곱슬 코팅 리트리버</t>
-  </si>
-  <si>
-    <t>오터 하운드</t>
-  </si>
-  <si>
     <t>단디 딘 모어 테리어</t>
   </si>
   <si>
     <t>파라오 하운드</t>
   </si>
   <si>
-    <t>서 섹스 스파니엘</t>
-  </si>
-  <si>
     <t>치누크</t>
   </si>
   <si>
-    <t>피레네 산 셰퍼드</t>
-  </si>
-  <si>
-    <t>코 몬도</t>
-  </si>
-  <si>
     <t>스카이 테리어</t>
   </si>
   <si>
-    <t>핀란드어 스 피츠</t>
-  </si>
-  <si>
     <t>체스키 테리어</t>
   </si>
   <si>
@@ -2659,24 +2581,12 @@
     <t>보헤미안 셰퍼드</t>
   </si>
   <si>
-    <t>부비에 데 아르덴</t>
-  </si>
-  <si>
-    <t>이탈리아의 브라 코</t>
-  </si>
-  <si>
     <t>부르크 뒤 부르봉</t>
   </si>
   <si>
     <t>캐러반 하운드</t>
   </si>
   <si>
-    <t>카타 훌라 불독</t>
-  </si>
-  <si>
-    <t>코 카푸</t>
-  </si>
-  <si>
     <t>도이치 브레 크</t>
   </si>
   <si>
@@ -2684,9 +2594,6 @@
   </si>
   <si>
     <t>재그스 테리어</t>
-  </si>
-  <si>
-    <t>그리폰 블루 드 가스 코뉴</t>
   </si>
   <si>
     <t>해밀턴 하운드</t>
@@ -2771,6 +2678,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>포인터</t>
     </r>
@@ -2778,10 +2687,6 @@
   </si>
   <si>
     <t>도베르만 핀셔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>오스트레일리아 양치기</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2801,22 +2706,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>카발리에 킹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 찰스 스패니얼</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>허배너스</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2933,10 +2822,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>잉글리쉬 코커 스패니얼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>알라스칸 말라뮤트</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3057,9 +2942,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>스태퍼드셔 불 테리어</t>
-  </si>
-  <si>
     <t>Anatolian Shepherd Dog</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3283,10 +3165,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>스페인 워터 도그</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>엔틀레부흐 마운틴 도그</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3335,10 +3213,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>노르위전 버훈드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>글렌 오브</t>
     </r>
@@ -3359,15 +3233,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>잉글리쉬 폭스 바운드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>시르네코 델레트나</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>아메리칸 폭스 하운드</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -4061,10 +3927,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>스웨디시 라프훈트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>타마스칸 독</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4246,6 +4108,175 @@
   </si>
   <si>
     <t>러시안 스베트나 보롱카</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬리 코티드 리트리버</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸들 (스탠다드)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카발리에 킹 찰스 스파니엘</t>
+  </si>
+  <si>
+    <t>잉글리쉬 코커 스파니엘</t>
+  </si>
+  <si>
+    <t>티벳 스파니엘</t>
+  </si>
+  <si>
+    <t>로트바일러</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오스트레일리안 셰퍼드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포메라니안</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아메리칸 코커 스파니엘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴펀들랜드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>체서피크 베이 리트리버</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아메리칸 스태포드샤이어 테리어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스태포드샤이어 불 테리어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>보비에 드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 플란더스</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>바센지</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>노르웨이 엘크하운드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>노리치 테리어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>라고토 로마뇰로</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오스트레일리안 테리어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>베드링턴 테리어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드본 쿤하운드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이크랜드 테리어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>실리엄 테리어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아메리칸 워터 스파니엘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페니쉬 워터 도그</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오터하운드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>서섹스 스파니엘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스위디쉬 발훈트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>노르위전 버훈트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>코몬도</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>피레니언 셰퍼드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>피니쉬 스피츠</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>잉글리쉬 폭스바운드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아메리칸 폭스하운드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>부비에 드 아르덴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라코 이탈리아노</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카타훌라 불독</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>코카푸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리퐁 블루 드 가스 코뉴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스위디시 라프훈트</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4616,14 +4647,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A359" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L371" sqref="L371"/>
+      <selection pane="topRight" activeCell="L370" sqref="L370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.59765625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="43.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4662,7 +4693,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>911</v>
+        <v>880</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
@@ -4937,8 +4968,8 @@
       <c r="K8" t="s">
         <v>43</v>
       </c>
-      <c r="L8" t="s">
-        <v>774</v>
+      <c r="L8" s="4" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
@@ -4975,8 +5006,8 @@
       <c r="K9" t="s">
         <v>27</v>
       </c>
-      <c r="L9" t="s">
-        <v>775</v>
+      <c r="L9" s="4" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
@@ -5014,7 +5045,7 @@
         <v>43</v>
       </c>
       <c r="L10" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
@@ -5052,12 +5083,12 @@
         <v>43</v>
       </c>
       <c r="L11" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>912</v>
+        <v>881</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -5090,7 +5121,7 @@
         <v>37</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>913</v>
+        <v>882</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
@@ -5128,7 +5159,7 @@
         <v>37</v>
       </c>
       <c r="L13" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
@@ -5166,7 +5197,7 @@
         <v>43</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>979</v>
+        <v>944</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
@@ -5204,7 +5235,7 @@
         <v>19</v>
       </c>
       <c r="L15" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
@@ -5242,7 +5273,7 @@
         <v>43</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>914</v>
+        <v>883</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
@@ -5280,7 +5311,7 @@
         <v>37</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>915</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
@@ -5318,7 +5349,7 @@
         <v>43</v>
       </c>
       <c r="L18" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
@@ -5356,7 +5387,7 @@
         <v>68</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>916</v>
+        <v>884</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
@@ -5394,7 +5425,7 @@
         <v>37</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>917</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
@@ -5432,7 +5463,7 @@
         <v>37</v>
       </c>
       <c r="L21" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
@@ -5470,7 +5501,7 @@
         <v>37</v>
       </c>
       <c r="L22" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
@@ -5507,8 +5538,8 @@
       <c r="K23" t="s">
         <v>77</v>
       </c>
-      <c r="L23" t="s">
-        <v>783</v>
+      <c r="L23" s="4" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
@@ -5546,12 +5577,12 @@
         <v>37</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>918</v>
+        <v>885</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
-        <v>919</v>
+        <v>886</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -5584,7 +5615,7 @@
         <v>37</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>920</v>
+        <v>887</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
@@ -5622,7 +5653,7 @@
         <v>83</v>
       </c>
       <c r="L26" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
@@ -5660,7 +5691,7 @@
         <v>37</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>921</v>
+        <v>888</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
@@ -5698,7 +5729,7 @@
         <v>89</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>922</v>
+        <v>889</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
@@ -5736,7 +5767,7 @@
         <v>19</v>
       </c>
       <c r="L29" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
@@ -5773,8 +5804,8 @@
       <c r="K30" t="s">
         <v>68</v>
       </c>
-      <c r="L30" t="s">
-        <v>786</v>
+      <c r="L30" s="4" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
@@ -5812,7 +5843,7 @@
         <v>27</v>
       </c>
       <c r="L31" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
@@ -5850,7 +5881,7 @@
         <v>37</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>923</v>
+        <v>890</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
@@ -5888,7 +5919,7 @@
         <v>19</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>924</v>
+        <v>891</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
@@ -5926,7 +5957,7 @@
         <v>19</v>
       </c>
       <c r="L34" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
@@ -5964,7 +5995,7 @@
         <v>83</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>925</v>
+        <v>892</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
@@ -6001,8 +6032,8 @@
       <c r="K36" t="s">
         <v>19</v>
       </c>
-      <c r="L36" t="s">
-        <v>789</v>
+      <c r="L36" s="4" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
@@ -6040,7 +6071,7 @@
         <v>110</v>
       </c>
       <c r="L37" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
@@ -6078,7 +6109,7 @@
         <v>19</v>
       </c>
       <c r="L38" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
@@ -6116,7 +6147,7 @@
         <v>43</v>
       </c>
       <c r="L39" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
@@ -6154,7 +6185,7 @@
         <v>117</v>
       </c>
       <c r="L40" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
@@ -6192,7 +6223,7 @@
         <v>43</v>
       </c>
       <c r="L41" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
@@ -6230,7 +6261,7 @@
         <v>19</v>
       </c>
       <c r="L42" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
@@ -6268,7 +6299,7 @@
         <v>27</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>926</v>
+        <v>893</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
@@ -6305,8 +6336,8 @@
       <c r="K44" t="s">
         <v>126</v>
       </c>
-      <c r="L44" t="s">
-        <v>796</v>
+      <c r="L44" s="4" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
@@ -6344,7 +6375,7 @@
         <v>129</v>
       </c>
       <c r="L45" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
@@ -6382,7 +6413,7 @@
         <v>37</v>
       </c>
       <c r="L46" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
@@ -6420,7 +6451,7 @@
         <v>43</v>
       </c>
       <c r="L47" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
@@ -6458,7 +6489,7 @@
         <v>136</v>
       </c>
       <c r="L48" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
@@ -6496,7 +6527,7 @@
         <v>139</v>
       </c>
       <c r="L49" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
@@ -6534,7 +6565,7 @@
         <v>37</v>
       </c>
       <c r="L50" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
@@ -6572,7 +6603,7 @@
         <v>144</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>927</v>
+        <v>894</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
@@ -6610,12 +6641,12 @@
         <v>27</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>928</v>
+        <v>895</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" s="4" t="s">
-        <v>929</v>
+        <v>896</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
@@ -6648,7 +6679,7 @@
         <v>148</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>930</v>
+        <v>897</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
@@ -6686,7 +6717,7 @@
         <v>19</v>
       </c>
       <c r="L54" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
@@ -6724,7 +6755,7 @@
         <v>43</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>931</v>
+        <v>898</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
@@ -6762,7 +6793,7 @@
         <v>83</v>
       </c>
       <c r="L56" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
@@ -6800,7 +6831,7 @@
         <v>144</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>932</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
@@ -6838,7 +6869,7 @@
         <v>33</v>
       </c>
       <c r="L58" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
@@ -6876,7 +6907,7 @@
         <v>161</v>
       </c>
       <c r="L59" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
@@ -6914,7 +6945,7 @@
         <v>164</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>933</v>
+        <v>899</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
@@ -6952,12 +6983,12 @@
         <v>68</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>934</v>
+        <v>900</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" s="4" t="s">
-        <v>935</v>
+        <v>901</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
@@ -6990,7 +7021,7 @@
         <v>129</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>936</v>
+        <v>902</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
@@ -7028,12 +7059,12 @@
         <v>129</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>937</v>
+        <v>903</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
-        <v>938</v>
+        <v>904</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -7066,7 +7097,7 @@
         <v>19</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>939</v>
+        <v>905</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
@@ -7104,7 +7135,7 @@
         <v>83</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>940</v>
+        <v>906</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
@@ -7142,7 +7173,7 @@
         <v>83</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>941</v>
+        <v>907</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
@@ -7180,12 +7211,12 @@
         <v>19</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>942</v>
+        <v>908</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" s="4" t="s">
-        <v>943</v>
+        <v>909</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -7218,7 +7249,7 @@
         <v>148</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>944</v>
+        <v>910</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
@@ -7256,12 +7287,12 @@
         <v>83</v>
       </c>
       <c r="L69" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" s="4" t="s">
-        <v>945</v>
+        <v>911</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
@@ -7294,7 +7325,7 @@
         <v>19</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>946</v>
+        <v>912</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
@@ -7332,7 +7363,7 @@
         <v>43</v>
       </c>
       <c r="L71" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
@@ -7370,7 +7401,7 @@
         <v>43</v>
       </c>
       <c r="L72" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
@@ -7408,7 +7439,7 @@
         <v>37</v>
       </c>
       <c r="L73" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
@@ -7446,7 +7477,7 @@
         <v>89</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>947</v>
+        <v>913</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
@@ -7484,12 +7515,12 @@
         <v>27</v>
       </c>
       <c r="L75" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" s="4" t="s">
-        <v>948</v>
+        <v>914</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
@@ -7522,7 +7553,7 @@
         <v>37</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>949</v>
+        <v>915</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
@@ -7560,12 +7591,12 @@
         <v>37</v>
       </c>
       <c r="L77" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" s="4" t="s">
-        <v>950</v>
+        <v>916</v>
       </c>
       <c r="B78" t="s">
         <v>12</v>
@@ -7598,7 +7629,7 @@
         <v>33</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>951</v>
+        <v>917</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
@@ -7636,7 +7667,7 @@
         <v>139</v>
       </c>
       <c r="L79" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
@@ -7674,7 +7705,7 @@
         <v>199</v>
       </c>
       <c r="L80" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.4">
@@ -7712,7 +7743,7 @@
         <v>68</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>952</v>
+        <v>918</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.4">
@@ -7749,13 +7780,13 @@
       <c r="K82" t="s">
         <v>43</v>
       </c>
-      <c r="L82" t="s">
-        <v>815</v>
+      <c r="L82" s="4" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" s="4" t="s">
-        <v>953</v>
+        <v>919</v>
       </c>
       <c r="B83" t="s">
         <v>21</v>
@@ -7787,8 +7818,8 @@
       <c r="K83" t="s">
         <v>199</v>
       </c>
-      <c r="L83" t="s">
-        <v>954</v>
+      <c r="L83" s="4" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.4">
@@ -7825,13 +7856,13 @@
       <c r="K84" t="s">
         <v>199</v>
       </c>
-      <c r="L84" t="s">
-        <v>816</v>
+      <c r="L84" s="4" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85" s="4" t="s">
-        <v>955</v>
+        <v>920</v>
       </c>
       <c r="B85" t="s">
         <v>14</v>
@@ -7864,7 +7895,7 @@
         <v>208</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>956</v>
+        <v>921</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.4">
@@ -7902,7 +7933,7 @@
         <v>110</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>957</v>
+        <v>922</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.4">
@@ -7940,12 +7971,12 @@
         <v>199</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>958</v>
+        <v>923</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88" s="4" t="s">
-        <v>959</v>
+        <v>924</v>
       </c>
       <c r="B88" t="s">
         <v>12</v>
@@ -7978,7 +8009,7 @@
         <v>33</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>960</v>
+        <v>925</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.4">
@@ -8015,13 +8046,13 @@
       <c r="K89" t="s">
         <v>37</v>
       </c>
-      <c r="L89" t="s">
-        <v>817</v>
+      <c r="L89" s="4" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90" s="4" t="s">
-        <v>961</v>
+        <v>926</v>
       </c>
       <c r="B90" t="s">
         <v>14</v>
@@ -8054,7 +8085,7 @@
         <v>43</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>962</v>
+        <v>927</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.4">
@@ -8092,7 +8123,7 @@
         <v>136</v>
       </c>
       <c r="L91" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.4">
@@ -8130,7 +8161,7 @@
         <v>37</v>
       </c>
       <c r="L92" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.4">
@@ -8168,7 +8199,7 @@
         <v>43</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>963</v>
+        <v>928</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.4">
@@ -8206,7 +8237,7 @@
         <v>126</v>
       </c>
       <c r="L94" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.4">
@@ -8243,8 +8274,8 @@
       <c r="K95" t="s">
         <v>43</v>
       </c>
-      <c r="L95" t="s">
-        <v>821</v>
+      <c r="L95" s="4" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.4">
@@ -8282,7 +8313,7 @@
         <v>129</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>964</v>
+        <v>929</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.4">
@@ -8320,7 +8351,7 @@
         <v>126</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>965</v>
+        <v>930</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.4">
@@ -8358,7 +8389,7 @@
         <v>126</v>
       </c>
       <c r="L98" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.4">
@@ -8396,7 +8427,7 @@
         <v>37</v>
       </c>
       <c r="L99" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.4">
@@ -8434,7 +8465,7 @@
         <v>161</v>
       </c>
       <c r="L100" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.4">
@@ -8472,7 +8503,7 @@
         <v>83</v>
       </c>
       <c r="L101" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.4">
@@ -8510,7 +8541,7 @@
         <v>83</v>
       </c>
       <c r="L102" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.4">
@@ -8548,7 +8579,7 @@
         <v>68</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>966</v>
+        <v>931</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.4">
@@ -8585,8 +8616,8 @@
       <c r="K104" t="s">
         <v>19</v>
       </c>
-      <c r="L104" t="s">
-        <v>827</v>
+      <c r="L104" s="4" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.4">
@@ -8624,7 +8655,7 @@
         <v>43</v>
       </c>
       <c r="L105" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.4">
@@ -8662,7 +8693,7 @@
         <v>164</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>967</v>
+        <v>932</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.4">
@@ -8700,7 +8731,7 @@
         <v>37</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>968</v>
+        <v>933</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.4">
@@ -8738,7 +8769,7 @@
         <v>43</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>969</v>
+        <v>934</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.4">
@@ -8776,7 +8807,7 @@
         <v>19</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>970</v>
+        <v>935</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.4">
@@ -8814,7 +8845,7 @@
         <v>19</v>
       </c>
       <c r="L110" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.4">
@@ -8852,7 +8883,7 @@
         <v>68</v>
       </c>
       <c r="L111" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.4">
@@ -8890,7 +8921,7 @@
         <v>37</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>971</v>
+        <v>936</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.4">
@@ -8928,7 +8959,7 @@
         <v>27</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>972</v>
+        <v>937</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.4">
@@ -8966,7 +8997,7 @@
         <v>117</v>
       </c>
       <c r="L114" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.4">
@@ -9003,8 +9034,8 @@
       <c r="K115" t="s">
         <v>144</v>
       </c>
-      <c r="L115" t="s">
-        <v>832</v>
+      <c r="L115" s="4" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.4">
@@ -9042,7 +9073,7 @@
         <v>83</v>
       </c>
       <c r="L116" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.4">
@@ -9080,12 +9111,12 @@
         <v>43</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>973</v>
+        <v>938</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A118" s="4" t="s">
-        <v>974</v>
+        <v>939</v>
       </c>
       <c r="B118" t="s">
         <v>14</v>
@@ -9118,7 +9149,7 @@
         <v>144</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>975</v>
+        <v>940</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.4">
@@ -9156,7 +9187,7 @@
         <v>126</v>
       </c>
       <c r="L119" t="s">
-        <v>834</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.4">
@@ -9194,7 +9225,7 @@
         <v>161</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>976</v>
+        <v>941</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.4">
@@ -9232,7 +9263,7 @@
         <v>33</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>977</v>
+        <v>942</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.4">
@@ -9270,7 +9301,7 @@
         <v>280</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>978</v>
+        <v>943</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.4">
@@ -9308,7 +9339,7 @@
         <v>83</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>982</v>
+        <v>947</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.4">
@@ -9346,7 +9377,7 @@
         <v>19</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>981</v>
+        <v>946</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.4">
@@ -9384,7 +9415,7 @@
         <v>37</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>983</v>
+        <v>948</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.4">
@@ -9422,7 +9453,7 @@
         <v>289</v>
       </c>
       <c r="L126" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.4">
@@ -9460,7 +9491,7 @@
         <v>43</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>984</v>
+        <v>949</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.4">
@@ -9498,7 +9529,7 @@
         <v>19</v>
       </c>
       <c r="L128" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.4">
@@ -9536,7 +9567,7 @@
         <v>37</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>985</v>
+        <v>950</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.4">
@@ -9574,7 +9605,7 @@
         <v>83</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>986</v>
+        <v>951</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.4">
@@ -9612,7 +9643,7 @@
         <v>280</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>987</v>
+        <v>952</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.4">
@@ -9650,7 +9681,7 @@
         <v>27</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>988</v>
+        <v>953</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.4">
@@ -9688,7 +9719,7 @@
         <v>27</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>989</v>
+        <v>954</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.4">
@@ -9726,7 +9757,7 @@
         <v>43</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>980</v>
+        <v>945</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.4">
@@ -9764,7 +9795,7 @@
         <v>37</v>
       </c>
       <c r="L135" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.4">
@@ -9802,7 +9833,7 @@
         <v>139</v>
       </c>
       <c r="L136" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.4">
@@ -9839,8 +9870,8 @@
       <c r="K137" t="s">
         <v>19</v>
       </c>
-      <c r="L137" t="s">
-        <v>839</v>
+      <c r="L137" s="4" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.4">
@@ -9878,7 +9909,7 @@
         <v>37</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>990</v>
+        <v>955</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.4">
@@ -9915,8 +9946,8 @@
       <c r="K139" t="s">
         <v>144</v>
       </c>
-      <c r="L139" t="s">
-        <v>840</v>
+      <c r="L139" s="4" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.4">
@@ -9954,7 +9985,7 @@
         <v>117</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>991</v>
+        <v>956</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.4">
@@ -9992,7 +10023,7 @@
         <v>139</v>
       </c>
       <c r="L141" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.4">
@@ -10030,7 +10061,7 @@
         <v>37</v>
       </c>
       <c r="L142" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.4">
@@ -10068,7 +10099,7 @@
         <v>164</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>992</v>
+        <v>957</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.4">
@@ -10105,8 +10136,8 @@
       <c r="K144" t="s">
         <v>19</v>
       </c>
-      <c r="L144" t="s">
-        <v>843</v>
+      <c r="L144" s="4" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.4">
@@ -10144,7 +10175,7 @@
         <v>328</v>
       </c>
       <c r="L145" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.4">
@@ -10181,8 +10212,8 @@
       <c r="K146" t="s">
         <v>83</v>
       </c>
-      <c r="L146" t="s">
-        <v>845</v>
+      <c r="L146" s="4" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.4">
@@ -10220,7 +10251,7 @@
         <v>37</v>
       </c>
       <c r="L147" t="s">
-        <v>846</v>
+        <v>829</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.4">
@@ -10258,7 +10289,7 @@
         <v>43</v>
       </c>
       <c r="L148" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.4">
@@ -10296,7 +10327,7 @@
         <v>37</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>993</v>
+        <v>958</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.4">
@@ -10334,7 +10365,7 @@
         <v>83</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>994</v>
+        <v>959</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.4">
@@ -10372,7 +10403,7 @@
         <v>83</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>995</v>
+        <v>960</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.4">
@@ -10410,7 +10441,7 @@
         <v>68</v>
       </c>
       <c r="L152" t="s">
-        <v>848</v>
+        <v>831</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.4">
@@ -10448,7 +10479,7 @@
         <v>83</v>
       </c>
       <c r="L153" t="s">
-        <v>849</v>
+        <v>832</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.4">
@@ -10486,7 +10517,7 @@
         <v>43</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>996</v>
+        <v>961</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.4">
@@ -10524,7 +10555,7 @@
         <v>164</v>
       </c>
       <c r="L155" t="s">
-        <v>850</v>
+        <v>833</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.4">
@@ -10561,8 +10592,8 @@
       <c r="K156" t="s">
         <v>43</v>
       </c>
-      <c r="L156" t="s">
-        <v>851</v>
+      <c r="L156" s="4" t="s">
+        <v>1149</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.4">
@@ -10599,8 +10630,8 @@
       <c r="K157" t="s">
         <v>43</v>
       </c>
-      <c r="L157" t="s">
-        <v>852</v>
+      <c r="L157" s="4" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.4">
@@ -10638,7 +10669,7 @@
         <v>19</v>
       </c>
       <c r="L158" s="4" t="s">
-        <v>997</v>
+        <v>962</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.4">
@@ -10676,7 +10707,7 @@
         <v>139</v>
       </c>
       <c r="L159" t="s">
-        <v>853</v>
+        <v>834</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.4">
@@ -10714,7 +10745,7 @@
         <v>43</v>
       </c>
       <c r="L160" t="s">
-        <v>854</v>
+        <v>835</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.4">
@@ -10752,7 +10783,7 @@
         <v>164</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>998</v>
+        <v>963</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.4">
@@ -10790,7 +10821,7 @@
         <v>139</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>1000</v>
+        <v>964</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.4">
@@ -10828,7 +10859,7 @@
         <v>117</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>999</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.4">
@@ -10865,8 +10896,8 @@
       <c r="K164" t="s">
         <v>136</v>
       </c>
-      <c r="L164" t="s">
-        <v>855</v>
+      <c r="L164" s="4" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.4">
@@ -10903,8 +10934,8 @@
       <c r="K165" t="s">
         <v>83</v>
       </c>
-      <c r="L165" t="s">
-        <v>856</v>
+      <c r="L165" s="4" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.4">
@@ -10942,7 +10973,7 @@
         <v>19</v>
       </c>
       <c r="L166" s="4" t="s">
-        <v>1001</v>
+        <v>965</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.4">
@@ -10979,8 +11010,8 @@
       <c r="K167" t="s">
         <v>148</v>
       </c>
-      <c r="L167" t="s">
-        <v>857</v>
+      <c r="L167" s="4" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.4">
@@ -11018,7 +11049,7 @@
         <v>19</v>
       </c>
       <c r="L168" t="s">
-        <v>858</v>
+        <v>836</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.4">
@@ -11056,7 +11087,7 @@
         <v>68</v>
       </c>
       <c r="L169" t="s">
-        <v>859</v>
+        <v>837</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.4">
@@ -11094,7 +11125,7 @@
         <v>379</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>1002</v>
+        <v>966</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.4">
@@ -11132,7 +11163,7 @@
         <v>382</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>1003</v>
+        <v>967</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.4">
@@ -11170,7 +11201,7 @@
         <v>68</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>1004</v>
+        <v>968</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.4">
@@ -11207,8 +11238,8 @@
       <c r="K173" t="s">
         <v>164</v>
       </c>
-      <c r="L173" t="s">
-        <v>860</v>
+      <c r="L173" s="4" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.4">
@@ -11246,7 +11277,7 @@
         <v>161</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>1005</v>
+        <v>969</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.4">
@@ -11284,7 +11315,7 @@
         <v>136</v>
       </c>
       <c r="L175" s="4" t="s">
-        <v>1006</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.4">
@@ -11322,7 +11353,7 @@
         <v>161</v>
       </c>
       <c r="L176" t="s">
-        <v>861</v>
+        <v>838</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.4">
@@ -11359,8 +11390,8 @@
       <c r="K177" t="s">
         <v>83</v>
       </c>
-      <c r="L177" t="s">
-        <v>862</v>
+      <c r="L177" s="4" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.4">
@@ -11397,8 +11428,8 @@
       <c r="K178" t="s">
         <v>129</v>
       </c>
-      <c r="L178" t="s">
-        <v>863</v>
+      <c r="L178" s="4" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.4">
@@ -11436,7 +11467,7 @@
         <v>43</v>
       </c>
       <c r="L179" t="s">
-        <v>864</v>
+        <v>839</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.4">
@@ -11473,8 +11504,8 @@
       <c r="K180" t="s">
         <v>19</v>
       </c>
-      <c r="L180" t="s">
-        <v>865</v>
+      <c r="L180" s="4" t="s">
+        <v>1158</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.4">
@@ -11512,7 +11543,7 @@
         <v>117</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>1007</v>
+        <v>970</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.4">
@@ -11550,7 +11581,7 @@
         <v>139</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>1008</v>
+        <v>971</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.4">
@@ -11588,7 +11619,7 @@
         <v>110</v>
       </c>
       <c r="L183" t="s">
-        <v>866</v>
+        <v>840</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.4">
@@ -11626,7 +11657,7 @@
         <v>409</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>1010</v>
+        <v>972</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.4">
@@ -11664,7 +11695,7 @@
         <v>199</v>
       </c>
       <c r="L185" t="s">
-        <v>867</v>
+        <v>841</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.4">
@@ -11702,7 +11733,7 @@
         <v>68</v>
       </c>
       <c r="L186" t="s">
-        <v>868</v>
+        <v>842</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.4">
@@ -11740,12 +11771,12 @@
         <v>68</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>1009</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A188" s="4" t="s">
-        <v>1014</v>
+        <v>975</v>
       </c>
       <c r="B188" t="s">
         <v>14</v>
@@ -11778,7 +11809,7 @@
         <v>161</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>1015</v>
+        <v>976</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.4">
@@ -11816,7 +11847,7 @@
         <v>199</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>1011</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.4">
@@ -11854,7 +11885,7 @@
         <v>43</v>
       </c>
       <c r="L190" t="s">
-        <v>869</v>
+        <v>843</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.4">
@@ -11892,7 +11923,7 @@
         <v>43</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>1012</v>
+        <v>973</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.4">
@@ -11930,7 +11961,7 @@
         <v>117</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>1013</v>
+        <v>974</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.4">
@@ -11968,7 +11999,7 @@
         <v>83</v>
       </c>
       <c r="L193" s="4" t="s">
-        <v>1016</v>
+        <v>977</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.4">
@@ -12006,7 +12037,7 @@
         <v>139</v>
       </c>
       <c r="L194" s="4" t="s">
-        <v>1017</v>
+        <v>978</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.4">
@@ -12044,7 +12075,7 @@
         <v>89</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>1018</v>
+        <v>979</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.4">
@@ -12082,7 +12113,7 @@
         <v>136</v>
       </c>
       <c r="L196" s="4" t="s">
-        <v>1019</v>
+        <v>980</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.4">
@@ -12120,7 +12151,7 @@
         <v>136</v>
       </c>
       <c r="L197" t="s">
-        <v>870</v>
+        <v>844</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.4">
@@ -12158,12 +12189,12 @@
         <v>199</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>1020</v>
+        <v>981</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A199" s="4" t="s">
-        <v>1021</v>
+        <v>982</v>
       </c>
       <c r="B199" t="s">
         <v>22</v>
@@ -12196,7 +12227,7 @@
         <v>129</v>
       </c>
       <c r="L199" s="4" t="s">
-        <v>1022</v>
+        <v>983</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.4">
@@ -12234,12 +12265,12 @@
         <v>117</v>
       </c>
       <c r="L200" t="s">
-        <v>1023</v>
+        <v>984</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A201" s="4" t="s">
-        <v>1024</v>
+        <v>985</v>
       </c>
       <c r="B201" t="s">
         <v>13</v>
@@ -12272,7 +12303,7 @@
         <v>43</v>
       </c>
       <c r="L201" s="4" t="s">
-        <v>1025</v>
+        <v>986</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.4">
@@ -12310,7 +12341,7 @@
         <v>129</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>1026</v>
+        <v>987</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.4">
@@ -12348,7 +12379,7 @@
         <v>19</v>
       </c>
       <c r="L203" t="s">
-        <v>871</v>
+        <v>845</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.4">
@@ -12386,7 +12417,7 @@
         <v>129</v>
       </c>
       <c r="L204" s="4" t="s">
-        <v>1027</v>
+        <v>988</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.4">
@@ -12424,12 +12455,12 @@
         <v>33</v>
       </c>
       <c r="L205" t="s">
-        <v>872</v>
+        <v>846</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A206" s="4" t="s">
-        <v>1028</v>
+        <v>989</v>
       </c>
       <c r="B206" t="s">
         <v>22</v>
@@ -12462,7 +12493,7 @@
         <v>161</v>
       </c>
       <c r="L206" s="4" t="s">
-        <v>1029</v>
+        <v>990</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.4">
@@ -12500,7 +12531,7 @@
         <v>19</v>
       </c>
       <c r="L207" t="s">
-        <v>873</v>
+        <v>847</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.4">
@@ -12538,12 +12569,12 @@
         <v>161</v>
       </c>
       <c r="L208" s="4" t="s">
-        <v>1030</v>
+        <v>991</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A209" s="4" t="s">
-        <v>1031</v>
+        <v>992</v>
       </c>
       <c r="B209" t="s">
         <v>22</v>
@@ -12576,7 +12607,7 @@
         <v>37</v>
       </c>
       <c r="L209" s="4" t="s">
-        <v>1032</v>
+        <v>993</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.4">
@@ -12614,12 +12645,12 @@
         <v>19</v>
       </c>
       <c r="L210" s="4" t="s">
-        <v>1033</v>
+        <v>994</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A211" s="4" t="s">
-        <v>1035</v>
+        <v>996</v>
       </c>
       <c r="B211" t="s">
         <v>22</v>
@@ -12652,7 +12683,7 @@
         <v>43</v>
       </c>
       <c r="L211" s="4" t="s">
-        <v>1034</v>
+        <v>995</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.4">
@@ -12690,7 +12721,7 @@
         <v>43</v>
       </c>
       <c r="L212" s="4" t="s">
-        <v>1036</v>
+        <v>997</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.4">
@@ -12728,7 +12759,7 @@
         <v>126</v>
       </c>
       <c r="L213" s="4" t="s">
-        <v>1037</v>
+        <v>998</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.4">
@@ -12766,7 +12797,7 @@
         <v>161</v>
       </c>
       <c r="L214" s="4" t="s">
-        <v>1038</v>
+        <v>999</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.4">
@@ -12804,7 +12835,7 @@
         <v>144</v>
       </c>
       <c r="L215" t="s">
-        <v>874</v>
+        <v>848</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.4">
@@ -12842,7 +12873,7 @@
         <v>144</v>
       </c>
       <c r="L216" t="s">
-        <v>875</v>
+        <v>849</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.4">
@@ -12880,7 +12911,7 @@
         <v>37</v>
       </c>
       <c r="L217" t="s">
-        <v>876</v>
+        <v>850</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.4">
@@ -12918,7 +12949,7 @@
         <v>33</v>
       </c>
       <c r="L218" t="s">
-        <v>877</v>
+        <v>851</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.4">
@@ -12956,7 +12987,7 @@
         <v>43</v>
       </c>
       <c r="L219" s="4" t="s">
-        <v>1039</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.4">
@@ -12994,7 +13025,7 @@
         <v>136</v>
       </c>
       <c r="L220" s="4" t="s">
-        <v>1040</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.4">
@@ -13032,7 +13063,7 @@
         <v>117</v>
       </c>
       <c r="L221" s="4" t="s">
-        <v>1041</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.4">
@@ -13070,7 +13101,7 @@
         <v>43</v>
       </c>
       <c r="L222" s="4" t="s">
-        <v>1042</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.4">
@@ -13108,7 +13139,7 @@
         <v>43</v>
       </c>
       <c r="L223" s="4" t="s">
-        <v>1043</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.4">
@@ -13146,7 +13177,7 @@
         <v>117</v>
       </c>
       <c r="L224" s="4" t="s">
-        <v>1044</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.4">
@@ -13184,7 +13215,7 @@
         <v>43</v>
       </c>
       <c r="L225" t="s">
-        <v>878</v>
+        <v>852</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.4">
@@ -13221,8 +13252,8 @@
       <c r="K226" t="s">
         <v>83</v>
       </c>
-      <c r="L226" t="s">
-        <v>879</v>
+      <c r="L226" s="4" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.4">
@@ -13259,8 +13290,8 @@
       <c r="K227" t="s">
         <v>117</v>
       </c>
-      <c r="L227" t="s">
-        <v>880</v>
+      <c r="L227" s="4" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.4">
@@ -13298,7 +13329,7 @@
         <v>89</v>
       </c>
       <c r="L228" t="s">
-        <v>881</v>
+        <v>853</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.4">
@@ -13336,7 +13367,7 @@
         <v>33</v>
       </c>
       <c r="L229" s="4" t="s">
-        <v>1045</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.4">
@@ -13374,7 +13405,7 @@
         <v>136</v>
       </c>
       <c r="L230" s="4" t="s">
-        <v>1046</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.4">
@@ -13412,7 +13443,7 @@
         <v>139</v>
       </c>
       <c r="L231" s="4" t="s">
-        <v>1047</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.4">
@@ -13450,7 +13481,7 @@
         <v>208</v>
       </c>
       <c r="L232" s="4" t="s">
-        <v>1048</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.4">
@@ -13488,7 +13519,7 @@
         <v>501</v>
       </c>
       <c r="L233" t="s">
-        <v>1050</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.4">
@@ -13526,7 +13557,7 @@
         <v>199</v>
       </c>
       <c r="L234" s="4" t="s">
-        <v>1049</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.4">
@@ -13564,7 +13595,7 @@
         <v>27</v>
       </c>
       <c r="L235" t="s">
-        <v>882</v>
+        <v>854</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.4">
@@ -13602,7 +13633,7 @@
         <v>129</v>
       </c>
       <c r="L236" s="4" t="s">
-        <v>1051</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.4">
@@ -13640,7 +13671,7 @@
         <v>139</v>
       </c>
       <c r="L237" s="4" t="s">
-        <v>1052</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.4">
@@ -13677,8 +13708,8 @@
       <c r="K238" t="s">
         <v>199</v>
       </c>
-      <c r="L238" t="s">
-        <v>883</v>
+      <c r="L238" s="4" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.4">
@@ -13716,7 +13747,7 @@
         <v>19</v>
       </c>
       <c r="L239" s="4" t="s">
-        <v>1053</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.4">
@@ -13754,7 +13785,7 @@
         <v>83</v>
       </c>
       <c r="L240" s="4" t="s">
-        <v>1054</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.4">
@@ -13792,12 +13823,12 @@
         <v>139</v>
       </c>
       <c r="L241" s="4" t="s">
-        <v>1055</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A242" s="4" t="s">
-        <v>1056</v>
+        <v>1017</v>
       </c>
       <c r="B242" t="s">
         <v>14</v>
@@ -13830,12 +13861,12 @@
         <v>27</v>
       </c>
       <c r="L242" s="4" t="s">
-        <v>1057</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A243" s="4" t="s">
-        <v>1058</v>
+        <v>1019</v>
       </c>
       <c r="B243" t="s">
         <v>14</v>
@@ -13868,7 +13899,7 @@
         <v>117</v>
       </c>
       <c r="L243" s="4" t="s">
-        <v>1059</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.4">
@@ -13906,7 +13937,7 @@
         <v>139</v>
       </c>
       <c r="L244" s="4" t="s">
-        <v>1060</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.4">
@@ -13943,8 +13974,8 @@
       <c r="K245" t="s">
         <v>19</v>
       </c>
-      <c r="L245" t="s">
-        <v>884</v>
+      <c r="L245" s="4" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.4">
@@ -13982,7 +14013,7 @@
         <v>37</v>
       </c>
       <c r="L246" s="4" t="s">
-        <v>1061</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.4">
@@ -14020,7 +14051,7 @@
         <v>136</v>
       </c>
       <c r="L247" s="4" t="s">
-        <v>1062</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.4">
@@ -14058,7 +14089,7 @@
         <v>27</v>
       </c>
       <c r="L248" s="4" t="s">
-        <v>1063</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.4">
@@ -14096,7 +14127,7 @@
         <v>501</v>
       </c>
       <c r="L249" t="s">
-        <v>885</v>
+        <v>855</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.4">
@@ -14134,7 +14165,7 @@
         <v>117</v>
       </c>
       <c r="L250" s="4" t="s">
-        <v>1064</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.4">
@@ -14172,7 +14203,7 @@
         <v>199</v>
       </c>
       <c r="L251" s="4" t="s">
-        <v>1065</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.4">
@@ -14210,7 +14241,7 @@
         <v>139</v>
       </c>
       <c r="L252" t="s">
-        <v>886</v>
+        <v>856</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.4">
@@ -14248,7 +14279,7 @@
         <v>382</v>
       </c>
       <c r="L253" s="4" t="s">
-        <v>1066</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.4">
@@ -14286,7 +14317,7 @@
         <v>117</v>
       </c>
       <c r="L254" s="4" t="s">
-        <v>1067</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.4">
@@ -14324,7 +14355,7 @@
         <v>280</v>
       </c>
       <c r="L255" s="4" t="s">
-        <v>1069</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.4">
@@ -14362,7 +14393,7 @@
         <v>139</v>
       </c>
       <c r="L256" s="4" t="s">
-        <v>1068</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.4">
@@ -14400,7 +14431,7 @@
         <v>43</v>
       </c>
       <c r="L257" s="4" t="s">
-        <v>1070</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.4">
@@ -14438,12 +14469,12 @@
         <v>83</v>
       </c>
       <c r="L258" s="4" t="s">
-        <v>1071</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A259" s="4" t="s">
-        <v>1072</v>
+        <v>1033</v>
       </c>
       <c r="B259" t="s">
         <v>12</v>
@@ -14476,7 +14507,7 @@
         <v>27</v>
       </c>
       <c r="L259" s="4" t="s">
-        <v>1073</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.4">
@@ -14514,7 +14545,7 @@
         <v>139</v>
       </c>
       <c r="L260" s="4" t="s">
-        <v>1074</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.4">
@@ -14552,7 +14583,7 @@
         <v>161</v>
       </c>
       <c r="L261" s="4" t="s">
-        <v>1075</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.4">
@@ -14590,7 +14621,7 @@
         <v>19</v>
       </c>
       <c r="L262" s="4" t="s">
-        <v>1076</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.4">
@@ -14628,7 +14659,7 @@
         <v>559</v>
       </c>
       <c r="L263" t="s">
-        <v>1080</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.4">
@@ -14666,7 +14697,7 @@
         <v>43</v>
       </c>
       <c r="L264" t="s">
-        <v>887</v>
+        <v>857</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.4">
@@ -14704,7 +14735,7 @@
         <v>68</v>
       </c>
       <c r="L265" s="4" t="s">
-        <v>1077</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.4">
@@ -14742,7 +14773,7 @@
         <v>77</v>
       </c>
       <c r="L266" s="4" t="s">
-        <v>1078</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.4">
@@ -14780,7 +14811,7 @@
         <v>19</v>
       </c>
       <c r="L267" s="4" t="s">
-        <v>1079</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.4">
@@ -14818,7 +14849,7 @@
         <v>83</v>
       </c>
       <c r="L268" t="s">
-        <v>1081</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.4">
@@ -14856,7 +14887,7 @@
         <v>161</v>
       </c>
       <c r="L269" s="4" t="s">
-        <v>1082</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.4">
@@ -14893,8 +14924,8 @@
       <c r="K270" t="s">
         <v>117</v>
       </c>
-      <c r="L270" t="s">
-        <v>888</v>
+      <c r="L270" s="4" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.4">
@@ -14932,7 +14963,7 @@
         <v>19</v>
       </c>
       <c r="L271" s="4" t="s">
-        <v>1083</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.4">
@@ -14970,7 +15001,7 @@
         <v>117</v>
       </c>
       <c r="L272" t="s">
-        <v>889</v>
+        <v>858</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.4">
@@ -15008,7 +15039,7 @@
         <v>139</v>
       </c>
       <c r="L273" s="4" t="s">
-        <v>1084</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.4">
@@ -15046,12 +15077,12 @@
         <v>161</v>
       </c>
       <c r="L274" t="s">
-        <v>890</v>
+        <v>859</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A275" s="4" t="s">
-        <v>1085</v>
+        <v>1046</v>
       </c>
       <c r="B275" t="s">
         <v>22</v>
@@ -15084,7 +15115,7 @@
         <v>161</v>
       </c>
       <c r="L275" s="4" t="s">
-        <v>1086</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.4">
@@ -15122,7 +15153,7 @@
         <v>19</v>
       </c>
       <c r="L276" s="4" t="s">
-        <v>1087</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.4">
@@ -15160,7 +15191,7 @@
         <v>33</v>
       </c>
       <c r="L277" s="4" t="s">
-        <v>1088</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.4">
@@ -15198,7 +15229,7 @@
         <v>43</v>
       </c>
       <c r="L278" s="4" t="s">
-        <v>1089</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.4">
@@ -15236,7 +15267,7 @@
         <v>139</v>
       </c>
       <c r="L279" s="4" t="s">
-        <v>1090</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.4">
@@ -15274,7 +15305,7 @@
         <v>139</v>
       </c>
       <c r="L280" t="s">
-        <v>891</v>
+        <v>860</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.4">
@@ -15312,7 +15343,7 @@
         <v>37</v>
       </c>
       <c r="L281" s="4" t="s">
-        <v>1091</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.4">
@@ -15350,7 +15381,7 @@
         <v>126</v>
       </c>
       <c r="L282" t="s">
-        <v>892</v>
+        <v>861</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.4">
@@ -15388,7 +15419,7 @@
         <v>117</v>
       </c>
       <c r="L283" s="4" t="s">
-        <v>1092</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.4">
@@ -15426,7 +15457,7 @@
         <v>83</v>
       </c>
       <c r="L284" s="4" t="s">
-        <v>1093</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.4">
@@ -15464,7 +15495,7 @@
         <v>37</v>
       </c>
       <c r="L285" s="4" t="s">
-        <v>1094</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.4">
@@ -15502,7 +15533,7 @@
         <v>382</v>
       </c>
       <c r="L286" s="4" t="s">
-        <v>1095</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.4">
@@ -15540,7 +15571,7 @@
         <v>43</v>
       </c>
       <c r="L287" s="4" t="s">
-        <v>1096</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.4">
@@ -15578,7 +15609,7 @@
         <v>164</v>
       </c>
       <c r="L288" s="4" t="s">
-        <v>1097</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.4">
@@ -15616,7 +15647,7 @@
         <v>37</v>
       </c>
       <c r="L289" s="4" t="s">
-        <v>1098</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.4">
@@ -15654,7 +15685,7 @@
         <v>144</v>
       </c>
       <c r="L290" s="4" t="s">
-        <v>1099</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.4">
@@ -15692,7 +15723,7 @@
         <v>33</v>
       </c>
       <c r="L291" s="4" t="s">
-        <v>1100</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.4">
@@ -15730,7 +15761,7 @@
         <v>161</v>
       </c>
       <c r="L292" s="4" t="s">
-        <v>1103</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.4">
@@ -15768,7 +15799,7 @@
         <v>144</v>
       </c>
       <c r="L293" s="4" t="s">
-        <v>1101</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.4">
@@ -15806,7 +15837,7 @@
         <v>33</v>
       </c>
       <c r="L294" s="4" t="s">
-        <v>1102</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.4">
@@ -15844,7 +15875,7 @@
         <v>139</v>
       </c>
       <c r="L295" s="4" t="s">
-        <v>1104</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.4">
@@ -15882,7 +15913,7 @@
         <v>83</v>
       </c>
       <c r="L296" t="s">
-        <v>893</v>
+        <v>862</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.4">
@@ -15920,7 +15951,7 @@
         <v>129</v>
       </c>
       <c r="L297" t="s">
-        <v>1106</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.4">
@@ -15958,7 +15989,7 @@
         <v>27</v>
       </c>
       <c r="L298" s="4" t="s">
-        <v>1107</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.4">
@@ -15996,7 +16027,7 @@
         <v>199</v>
       </c>
       <c r="L299" s="4" t="s">
-        <v>1105</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.4">
@@ -16034,7 +16065,7 @@
         <v>164</v>
       </c>
       <c r="L300" t="s">
-        <v>894</v>
+        <v>863</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.4">
@@ -16072,12 +16103,12 @@
         <v>136</v>
       </c>
       <c r="L301" t="s">
-        <v>895</v>
+        <v>864</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A302" s="4" t="s">
-        <v>1108</v>
+        <v>1069</v>
       </c>
       <c r="B302" t="s">
         <v>14</v>
@@ -16110,12 +16141,12 @@
         <v>328</v>
       </c>
       <c r="L302" s="4" t="s">
-        <v>1109</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A303" s="4" t="s">
-        <v>1110</v>
+        <v>1071</v>
       </c>
       <c r="B303" t="s">
         <v>13</v>
@@ -16148,7 +16179,7 @@
         <v>37</v>
       </c>
       <c r="L303" s="4" t="s">
-        <v>1111</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.4">
@@ -16186,7 +16217,7 @@
         <v>139</v>
       </c>
       <c r="L304" s="4" t="s">
-        <v>1112</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.4">
@@ -16224,7 +16255,7 @@
         <v>83</v>
       </c>
       <c r="L305" t="s">
-        <v>896</v>
+        <v>865</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.4">
@@ -16262,7 +16293,7 @@
         <v>139</v>
       </c>
       <c r="L306" t="s">
-        <v>1113</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.4">
@@ -16300,7 +16331,7 @@
         <v>129</v>
       </c>
       <c r="L307" s="4" t="s">
-        <v>1114</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.4">
@@ -16338,7 +16369,7 @@
         <v>164</v>
       </c>
       <c r="L308" s="4" t="s">
-        <v>1115</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.4">
@@ -16376,7 +16407,7 @@
         <v>161</v>
       </c>
       <c r="L309" s="4" t="s">
-        <v>1116</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.4">
@@ -16414,7 +16445,7 @@
         <v>161</v>
       </c>
       <c r="L310" s="4" t="s">
-        <v>1117</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.4">
@@ -16452,7 +16483,7 @@
         <v>117</v>
       </c>
       <c r="L311" s="4" t="s">
-        <v>1118</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.4">
@@ -16490,7 +16521,7 @@
         <v>27</v>
       </c>
       <c r="L312" s="4" t="s">
-        <v>1119</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.4">
@@ -16528,7 +16559,7 @@
         <v>43</v>
       </c>
       <c r="L313" t="s">
-        <v>897</v>
+        <v>866</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.4">
@@ -16566,7 +16597,7 @@
         <v>37</v>
       </c>
       <c r="L314" s="4" t="s">
-        <v>1120</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.4">
@@ -16604,7 +16635,7 @@
         <v>43</v>
       </c>
       <c r="L315" s="4" t="s">
-        <v>1121</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.4">
@@ -16642,7 +16673,7 @@
         <v>164</v>
       </c>
       <c r="L316" s="4" t="s">
-        <v>1122</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.4">
@@ -16680,7 +16711,7 @@
         <v>68</v>
       </c>
       <c r="L317" t="s">
-        <v>898</v>
+        <v>867</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.4">
@@ -16718,7 +16749,7 @@
         <v>19</v>
       </c>
       <c r="L318" s="4" t="s">
-        <v>1123</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.4">
@@ -16756,7 +16787,7 @@
         <v>117</v>
       </c>
       <c r="L319" s="4" t="s">
-        <v>1124</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.4">
@@ -16794,7 +16825,7 @@
         <v>83</v>
       </c>
       <c r="L320" s="4" t="s">
-        <v>1125</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.4">
@@ -16832,7 +16863,7 @@
         <v>117</v>
       </c>
       <c r="L321" s="4" t="s">
-        <v>1126</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.4">
@@ -16870,7 +16901,7 @@
         <v>89</v>
       </c>
       <c r="L322" s="4" t="s">
-        <v>1127</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.4">
@@ -16908,7 +16939,7 @@
         <v>129</v>
       </c>
       <c r="L323" s="4" t="s">
-        <v>1128</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.4">
@@ -16946,7 +16977,7 @@
         <v>33</v>
       </c>
       <c r="L324" s="4" t="s">
-        <v>1129</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.4">
@@ -16984,12 +17015,12 @@
         <v>43</v>
       </c>
       <c r="L325" s="4" t="s">
-        <v>1130</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A326" s="4" t="s">
-        <v>1132</v>
+        <v>1092</v>
       </c>
       <c r="B326" t="s">
         <v>440</v>
@@ -17022,7 +17053,7 @@
         <v>43</v>
       </c>
       <c r="L326" s="4" t="s">
-        <v>1131</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.4">
@@ -17060,7 +17091,7 @@
         <v>199</v>
       </c>
       <c r="L327" s="4" t="s">
-        <v>1133</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.4">
@@ -17098,7 +17129,7 @@
         <v>199</v>
       </c>
       <c r="L328" s="4" t="s">
-        <v>1134</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.4">
@@ -17136,7 +17167,7 @@
         <v>208</v>
       </c>
       <c r="L329" t="s">
-        <v>899</v>
+        <v>868</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.4">
@@ -17174,7 +17205,7 @@
         <v>379</v>
       </c>
       <c r="L330" t="s">
-        <v>900</v>
+        <v>869</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.4">
@@ -17212,7 +17243,7 @@
         <v>139</v>
       </c>
       <c r="L331" s="4" t="s">
-        <v>1135</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.4">
@@ -17250,7 +17281,7 @@
         <v>33</v>
       </c>
       <c r="L332" s="4" t="s">
-        <v>1136</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.4">
@@ -17288,7 +17319,7 @@
         <v>379</v>
       </c>
       <c r="L333" s="4" t="s">
-        <v>1137</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.4">
@@ -17326,7 +17357,7 @@
         <v>208</v>
       </c>
       <c r="L334" s="4" t="s">
-        <v>1139</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.4">
@@ -17364,7 +17395,7 @@
         <v>136</v>
       </c>
       <c r="L335" s="4" t="s">
-        <v>1138</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.4">
@@ -17402,7 +17433,7 @@
         <v>19</v>
       </c>
       <c r="L336" s="4" t="s">
-        <v>1140</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.4">
@@ -17440,7 +17471,7 @@
         <v>33</v>
       </c>
       <c r="L337" t="s">
-        <v>901</v>
+        <v>870</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.4">
@@ -17478,7 +17509,7 @@
         <v>379</v>
       </c>
       <c r="L338" s="4" t="s">
-        <v>1141</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.4">
@@ -17516,7 +17547,7 @@
         <v>199</v>
       </c>
       <c r="L339" s="4" t="s">
-        <v>1142</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.4">
@@ -17554,7 +17585,7 @@
         <v>382</v>
       </c>
       <c r="L340" t="s">
-        <v>902</v>
+        <v>871</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.4">
@@ -17592,7 +17623,7 @@
         <v>164</v>
       </c>
       <c r="L341" s="4" t="s">
-        <v>1143</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.4">
@@ -17630,7 +17661,7 @@
         <v>27</v>
       </c>
       <c r="L342" s="4" t="s">
-        <v>1144</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.4">
@@ -17668,7 +17699,7 @@
         <v>33</v>
       </c>
       <c r="L343" t="s">
-        <v>903</v>
+        <v>872</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.4">
@@ -17706,7 +17737,7 @@
         <v>136</v>
       </c>
       <c r="L344" s="4" t="s">
-        <v>1145</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.4">
@@ -17744,7 +17775,7 @@
         <v>27</v>
       </c>
       <c r="L345" t="s">
-        <v>904</v>
+        <v>873</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.4">
@@ -17782,7 +17813,7 @@
         <v>161</v>
       </c>
       <c r="L346" s="4" t="s">
-        <v>1146</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.4">
@@ -17820,12 +17851,12 @@
         <v>144</v>
       </c>
       <c r="L347" s="4" t="s">
-        <v>1148</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A348" s="4" t="s">
-        <v>1147</v>
+        <v>1107</v>
       </c>
       <c r="B348" t="s">
         <v>440</v>
@@ -17858,7 +17889,7 @@
         <v>37</v>
       </c>
       <c r="L348" s="4" t="s">
-        <v>1149</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.4">
@@ -17896,7 +17927,7 @@
         <v>164</v>
       </c>
       <c r="L349" t="s">
-        <v>905</v>
+        <v>874</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.4">
@@ -17934,7 +17965,7 @@
         <v>164</v>
       </c>
       <c r="L350" s="4" t="s">
-        <v>1150</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.4">
@@ -17972,7 +18003,7 @@
         <v>126</v>
       </c>
       <c r="L351" s="4" t="s">
-        <v>1151</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.4">
@@ -18010,7 +18041,7 @@
         <v>144</v>
       </c>
       <c r="L352" s="4" t="s">
-        <v>1153</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.4">
@@ -18048,7 +18079,7 @@
         <v>19</v>
       </c>
       <c r="L353" s="4" t="s">
-        <v>1152</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.4">
@@ -18086,7 +18117,7 @@
         <v>117</v>
       </c>
       <c r="L354" s="4" t="s">
-        <v>1154</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.4">
@@ -18124,7 +18155,7 @@
         <v>144</v>
       </c>
       <c r="L355" t="s">
-        <v>906</v>
+        <v>875</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.4">
@@ -18162,7 +18193,7 @@
         <v>19</v>
       </c>
       <c r="L356" s="4" t="s">
-        <v>1155</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.4">
@@ -18200,7 +18231,7 @@
         <v>68</v>
       </c>
       <c r="L357" t="s">
-        <v>907</v>
+        <v>876</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.4">
@@ -18238,7 +18269,7 @@
         <v>37</v>
       </c>
       <c r="L358" s="4" t="s">
-        <v>1156</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.4">
@@ -18276,7 +18307,7 @@
         <v>43</v>
       </c>
       <c r="L359" s="4" t="s">
-        <v>1157</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.4">
@@ -18314,7 +18345,7 @@
         <v>33</v>
       </c>
       <c r="L360" t="s">
-        <v>908</v>
+        <v>877</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.4">
@@ -18352,7 +18383,7 @@
         <v>280</v>
       </c>
       <c r="L361" s="4" t="s">
-        <v>1158</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.4">
@@ -18390,12 +18421,12 @@
         <v>37</v>
       </c>
       <c r="L362" t="s">
-        <v>909</v>
+        <v>878</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A363" s="4" t="s">
-        <v>1159</v>
+        <v>1119</v>
       </c>
       <c r="B363" t="s">
         <v>21</v>
@@ -18428,7 +18459,7 @@
         <v>68</v>
       </c>
       <c r="L363" s="4" t="s">
-        <v>1160</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.4">
@@ -18466,7 +18497,7 @@
         <v>379</v>
       </c>
       <c r="L364" s="4" t="s">
-        <v>1161</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.4">
@@ -18504,7 +18535,7 @@
         <v>280</v>
       </c>
       <c r="L365" s="4" t="s">
-        <v>1162</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.4">
@@ -18542,7 +18573,7 @@
         <v>144</v>
       </c>
       <c r="L366" s="4" t="s">
-        <v>1163</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.4">
@@ -18580,7 +18611,7 @@
         <v>208</v>
       </c>
       <c r="L367" t="s">
-        <v>910</v>
+        <v>879</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.4">
@@ -18618,7 +18649,7 @@
         <v>27</v>
       </c>
       <c r="L368" s="4" t="s">
-        <v>1164</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.4">
@@ -18656,7 +18687,7 @@
         <v>144</v>
       </c>
       <c r="L369" s="4" t="s">
-        <v>1165</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.4">
@@ -18694,7 +18725,7 @@
         <v>144</v>
       </c>
       <c r="L370" s="4" t="s">
-        <v>1166</v>
+        <v>1126</v>
       </c>
     </row>
   </sheetData>
